--- a/UI/装备.xlsx
+++ b/UI/装备.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="武器" sheetId="1" r:id="rId1"/>
+    <sheet name="武器（刀，剑，弓，法杖）" sheetId="1" r:id="rId1"/>
     <sheet name="服装" sheetId="2" r:id="rId2"/>
     <sheet name="发饰" sheetId="4" r:id="rId3"/>
     <sheet name="副手" sheetId="5" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>属性（暂时不用考虑）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +424,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -450,31 +458,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -486,31 +497,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
     </row>
